--- a/wimoor-erp/src/main/resources/template/MaterialBaseInfo.xlsx
+++ b/wimoor-erp/src/main/resources/template/MaterialBaseInfo.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>SKU</t>
   </si>
@@ -70,13 +70,7 @@
     <t>单箱数量</t>
   </si>
   <si>
-    <t>不良率</t>
-  </si>
-  <si>
     <t>品牌名</t>
-  </si>
-  <si>
-    <t>供货周期</t>
   </si>
   <si>
     <t>其它费用</t>
@@ -272,12 +266,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1106,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1125,7 +1119,7 @@
     <col min="11" max="11" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:23">
+    <row r="1" ht="33" customHeight="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,58 +1165,52 @@
       <c r="U1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
       <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="16:16">
       <c r="P9" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -1235,8 +1223,6 @@
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
